--- a/multi_agent_system_flow/src/multi_agent_system_flow/attributes_before_refactoring.xlsx
+++ b/multi_agent_system_flow/src/multi_agent_system_flow/attributes_before_refactoring.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Project</t>
   </si>
@@ -79,30 +79,9 @@
     <t>commons-dbutils</t>
   </si>
   <si>
-    <t>commons-email</t>
-  </si>
-  <si>
-    <t>commons-exec</t>
-  </si>
-  <si>
-    <t>commons-fileupload</t>
-  </si>
-  <si>
-    <t>commons-imaging</t>
-  </si>
-  <si>
-    <t>commons-jcs</t>
-  </si>
-  <si>
-    <t>commons-jexl</t>
-  </si>
-  <si>
     <t>commons-lang</t>
   </si>
   <si>
-    <t>commons-logging</t>
-  </si>
-  <si>
     <t>commons-math</t>
   </si>
   <si>
@@ -118,37 +97,7 @@
     <t>commons-validator</t>
   </si>
   <si>
-    <t>gioco-oca-univaq-fsociety</t>
-  </si>
-  <si>
-    <t>gioco-oca-univaq-let</t>
-  </si>
-  <si>
-    <t>gioco-oca-univaq-rasputeam</t>
-  </si>
-  <si>
-    <t>gioco-oca-univaq-the-debuggers</t>
-  </si>
-  <si>
-    <t>gioco-oca-univaq-untitled-goose-alliance</t>
-  </si>
-  <si>
-    <t>gioco-oca-univaq-vmd</t>
-  </si>
-  <si>
-    <t>monopoli-univaq-monopoliduoproject</t>
-  </si>
-  <si>
-    <t>monopoli-univaq-progettolpoantonacci</t>
-  </si>
-  <si>
-    <t>monopoli-univaq2-daltrio</t>
-  </si>
-  <si>
-    <t>monopoli-univaq2-polimono</t>
-  </si>
-  <si>
-    <t>risiko-univaq-masterminds</t>
+    <t>commons-vfs</t>
   </si>
 </sst>
 </file>
@@ -506,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,10 +795,10 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>4814</v>
+        <v>32788</v>
       </c>
       <c r="C8">
-        <v>80.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -858,34 +807,34 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>1048</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8">
-        <v>216</v>
+        <v>3208</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>569</v>
+        <v>5932</v>
       </c>
       <c r="M8">
-        <v>68.09999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="N8">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="O8">
-        <v>51</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -893,10 +842,10 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>2213</v>
+        <v>69510</v>
       </c>
       <c r="C9">
-        <v>71.3</v>
+        <v>74.8</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -905,34 +854,34 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>1953</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>227</v>
+        <v>3752</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>312</v>
+        <v>12565</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N9">
-        <v>43</v>
+        <v>879</v>
       </c>
       <c r="O9">
-        <v>24</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -940,10 +889,10 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>3473</v>
+        <v>17992</v>
       </c>
       <c r="C10">
-        <v>53.4</v>
+        <v>37.1</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -952,34 +901,34 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>194</v>
+        <v>1757</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>364</v>
+        <v>2971</v>
       </c>
       <c r="M10">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="O10">
-        <v>56</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -987,10 +936,10 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>31190</v>
+        <v>6401</v>
       </c>
       <c r="C11">
-        <v>73.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -999,34 +948,34 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
+        <v>91</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>555</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>864</v>
       </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>2400</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>5291</v>
-      </c>
       <c r="M11">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="N11">
-        <v>432</v>
+        <v>83</v>
       </c>
       <c r="O11">
-        <v>594</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1034,10 +983,10 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>29966</v>
+        <v>11224</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>97.3</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -1046,34 +995,34 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
       <c r="H12">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>1381</v>
+        <v>695</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>2739</v>
+        <v>2085</v>
       </c>
       <c r="M12">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="N12">
-        <v>341</v>
+        <v>125</v>
       </c>
       <c r="O12">
-        <v>282</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1081,10 +1030,10 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>18158</v>
+        <v>8310</v>
       </c>
       <c r="C13">
-        <v>79</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -1093,34 +1042,34 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>1218</v>
+        <v>539</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>4104</v>
+        <v>1027</v>
       </c>
       <c r="M13">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="N13">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="O13">
-        <v>325</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1128,10 +1077,10 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>32791</v>
+        <v>24356</v>
       </c>
       <c r="C14">
-        <v>95.09999999999999</v>
+        <v>62.3</v>
       </c>
       <c r="D14">
         <v>100</v>
@@ -1140,785 +1089,34 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>1049</v>
+        <v>228</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>3236</v>
+        <v>2263</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>5933</v>
+        <v>2710</v>
       </c>
       <c r="M14">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="O14">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15">
-        <v>3824</v>
-      </c>
-      <c r="C15">
-        <v>55.8</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>75</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>346</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>542</v>
-      </c>
-      <c r="M15">
-        <v>7.1</v>
-      </c>
-      <c r="N15">
-        <v>31</v>
-      </c>
-      <c r="O15">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <v>69510</v>
-      </c>
-      <c r="C16">
-        <v>74.8</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>89</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>1953</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-      <c r="J16">
-        <v>3752</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>12565</v>
-      </c>
-      <c r="M16">
-        <v>2.7</v>
-      </c>
-      <c r="N16">
-        <v>879</v>
-      </c>
-      <c r="O16">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17">
-        <v>18001</v>
-      </c>
-      <c r="C17">
-        <v>37.2</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>53</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>250</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>1759</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>2971</v>
-      </c>
-      <c r="M17">
-        <v>2.5</v>
-      </c>
-      <c r="N17">
-        <v>283</v>
-      </c>
-      <c r="O17">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>6401</v>
-      </c>
-      <c r="C18">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>91</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>555</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>864</v>
-      </c>
-      <c r="M18">
-        <v>1.1</v>
-      </c>
-      <c r="N18">
-        <v>83</v>
-      </c>
-      <c r="O18">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19">
-        <v>11232</v>
-      </c>
-      <c r="C19">
-        <v>97.3</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>127</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>695</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>2085</v>
-      </c>
-      <c r="M19">
-        <v>6.3</v>
-      </c>
-      <c r="N19">
-        <v>125</v>
-      </c>
-      <c r="O19">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20">
-        <v>8310</v>
-      </c>
-      <c r="C20">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>12</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>108</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>539</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1027</v>
-      </c>
-      <c r="M20">
-        <v>2.3</v>
-      </c>
-      <c r="N20">
-        <v>85</v>
-      </c>
-      <c r="O20">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21">
-        <v>1555</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>50</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>335</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>241</v>
-      </c>
-      <c r="M21">
-        <v>2.4</v>
-      </c>
-      <c r="N21">
-        <v>46</v>
-      </c>
-      <c r="O21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22">
-        <v>1093</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <v>32</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>222</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>175</v>
-      </c>
-      <c r="M22">
-        <v>6.4</v>
-      </c>
-      <c r="N22">
-        <v>40</v>
-      </c>
-      <c r="O22">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23">
-        <v>915</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>11</v>
-      </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
-      <c r="J23">
-        <v>193</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>174</v>
-      </c>
-      <c r="M23">
-        <v>6.1</v>
-      </c>
-      <c r="N23">
-        <v>29</v>
-      </c>
-      <c r="O23">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24">
-        <v>1416</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>16</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>297</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>431</v>
-      </c>
-      <c r="M24">
-        <v>3.1</v>
-      </c>
-      <c r="N24">
-        <v>52</v>
-      </c>
-      <c r="O24">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25">
-        <v>1255</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>100</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>11</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>34</v>
-      </c>
-      <c r="I25">
-        <v>4</v>
-      </c>
-      <c r="J25">
-        <v>292</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>215</v>
-      </c>
-      <c r="M25">
-        <v>2.9</v>
-      </c>
-      <c r="N25">
-        <v>45</v>
-      </c>
-      <c r="O25">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26">
-        <v>1624</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>21</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26">
-        <v>311</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>324</v>
-      </c>
-      <c r="M26">
-        <v>2.6</v>
-      </c>
-      <c r="N26">
-        <v>45</v>
-      </c>
-      <c r="O26">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27">
-        <v>4463</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>13</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-      <c r="H27">
-        <v>86</v>
-      </c>
-      <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <v>615</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>572</v>
-      </c>
-      <c r="M27">
-        <v>15.7</v>
-      </c>
-      <c r="N27">
-        <v>72</v>
-      </c>
-      <c r="O27">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28">
-        <v>1635</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>100</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>18</v>
-      </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-      <c r="J28">
-        <v>257</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>76</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>42</v>
-      </c>
-      <c r="O28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29">
-        <v>2934</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29">
-        <v>36</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>505</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>574</v>
-      </c>
-      <c r="M29">
-        <v>1.5</v>
-      </c>
-      <c r="N29">
-        <v>59</v>
-      </c>
-      <c r="O29">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30">
-        <v>1634</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>12</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30">
-        <v>15</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>327</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>516</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>25</v>
-      </c>
-      <c r="O30">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31">
-        <v>2779</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>100</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <v>39</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>233</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>511</v>
-      </c>
-      <c r="M31">
-        <v>1.1</v>
-      </c>
-      <c r="N31">
-        <v>32</v>
-      </c>
-      <c r="O31">
-        <v>106</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
